--- a/data/georgia_census/imereti/sachxere/average_wages.xlsx
+++ b/data/georgia_census/imereti/sachxere/average_wages.xlsx
@@ -1105,13 +1105,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E35958E-25A2-41B2-8225-D8573407C670}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4828B50-E4AF-4906-AD87-0F2413151055}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EB99DA2-FB35-4D24-8453-4F1723C04221}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{030654A4-BC5F-4CEB-B605-F619E6DF9DFF}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26008B82-69E1-4CC9-8D50-CD28A3CDCFEC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0212DA0-6A84-4959-8819-A0470E21ACF2}"/>
 </file>